--- a/biology/Botanique/Pinus_kochiana/Pinus_kochiana.xlsx
+++ b/biology/Botanique/Pinus_kochiana/Pinus_kochiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pinus kochiana · Pin de Koch
 Pinus sylvestris var. hamata, aussi connu sous le nom de Pinus kochiana ou pin de Koch est une espèce de pins présente principalement en Géorgie, dans les régions historiques d'Adjarie et de Djavakhétie. Il doit son nom au botaniste allemand Karl Koch qui explore le Caucase dans la première moitié du XIXe siècle.
-Pinus kochiana est représenté sur une pièce de 200 dram arménien de 2014[3].
+Pinus kochiana est représenté sur une pièce de 200 dram arménien de 2014.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (18 décembre 2018)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (18 décembre 2018) :
 variété Pinus kochiana var. parviflora (Fomin) Grossh.</t>
         </is>
       </c>
